--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_OrganizationCodeProfile_Regression_001.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_OrganizationCodeProfile_Regression_001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B7EB7F-56C7-483E-9027-541E062C8972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E348C77-9ACC-409F-9BFF-F7CFC03D7750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -111,16 +111,16 @@
     <t>TC_PM_COA_SEC_OrganizationCodeProfile_AddNewProfile</t>
   </si>
   <si>
-    <t>AddNewProfile_Details</t>
-  </si>
-  <si>
-    <t>Adding new profile via details page</t>
-  </si>
-  <si>
     <t>TC_PM_COA_SEC_ListView_D3</t>
   </si>
   <si>
     <t>TC_PM_COA_SEC_DeleteProfile</t>
+  </si>
+  <si>
+    <t>Login_Logout</t>
+  </si>
+  <si>
+    <t>Logging Out</t>
   </si>
 </sst>
 </file>
@@ -165,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -188,11 +188,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -201,6 +212,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -485,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -624,7 +638,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
@@ -724,30 +738,30 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
@@ -759,23 +773,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
         <v>1</v>
       </c>
     </row>

--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_OrganizationCodeProfile_Regression_001.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_OrganizationCodeProfile_Regression_001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E348C77-9ACC-409F-9BFF-F7CFC03D7750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED6D630-3CA6-43A1-BC1D-285AA98A3BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t>BusinessModule</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Editing Valid data into the fields</t>
   </si>
   <si>
-    <t>NextProfile</t>
-  </si>
-  <si>
     <t>Open next profile</t>
   </si>
   <si>
@@ -121,6 +118,24 @@
   </si>
   <si>
     <t>Logging Out</t>
+  </si>
+  <si>
+    <t>Nav_NextProfile_and_AddNewProfile</t>
+  </si>
+  <si>
+    <t>Adding New Profile Via Details Page</t>
+  </si>
+  <si>
+    <t>TC_PM_COA_SEC_OrganizationCodeProfile_Recall</t>
+  </si>
+  <si>
+    <t>Recalling Existing Profile</t>
+  </si>
+  <si>
+    <t>Recall_Confirm</t>
+  </si>
+  <si>
+    <t>Confirm Alert Box</t>
   </si>
 </sst>
 </file>
@@ -214,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -497,17 +512,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.90625" customWidth="1"/>
-    <col min="3" max="3" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6328125" bestFit="1" customWidth="1"/>
@@ -638,7 +653,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
@@ -658,7 +673,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>17</v>
@@ -698,7 +713,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>22</v>
@@ -718,10 +733,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
@@ -738,58 +753,118 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
         <v>1</v>
       </c>
     </row>

--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_OrganizationCodeProfile_Regression_001.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_OrganizationCodeProfile_Regression_001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED6D630-3CA6-43A1-BC1D-285AA98A3BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B7899B-8D2D-4C13-A422-56382C499980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>BusinessModule</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Adding New Profile Via Details Page</t>
-  </si>
-  <si>
-    <t>TC_PM_COA_SEC_OrganizationCodeProfile_Recall</t>
   </si>
   <si>
     <t>Recalling Existing Profile</t>
@@ -515,7 +512,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -773,10 +770,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
@@ -793,10 +790,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
